--- a/sample_work/food.xlsx
+++ b/sample_work/food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouz8/Desktop/gitclone/QAQ/sample_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C23E5A-9E75-A543-BE0B-A91602F867AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0BEE58-BE7A-8D49-8837-2134FB6C0D8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24100" yWindow="4620" windowWidth="28040" windowHeight="17440" xr2:uid="{871FA30F-33BD-8148-8CC2-CB2E81A179DA}"/>
+    <workbookView xWindow="23160" yWindow="4620" windowWidth="28040" windowHeight="17440" xr2:uid="{871FA30F-33BD-8148-8CC2-CB2E81A179DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
   <si>
     <t>name</t>
   </si>
@@ -387,9 +387,6 @@
     <t>The Melting Pot</t>
   </si>
   <si>
-    <t>166 2nd Ave N A, Nashville, TN 37201</t>
-  </si>
-  <si>
     <t>Shake Shack</t>
   </si>
   <si>
@@ -577,6 +574,18 @@
   </si>
   <si>
     <t>231 7th Ave N, Nashville, TN 37219</t>
+  </si>
+  <si>
+    <t>Dozen Bakery</t>
+  </si>
+  <si>
+    <t>pecan pie</t>
+  </si>
+  <si>
+    <t>516 Hagan St, Nashville, TN 37203</t>
+  </si>
+  <si>
+    <t>166 2nd Ave N, Nashville, TN 37201</t>
   </si>
 </sst>
 </file>
@@ -950,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEC2D80-4163-9F49-9FA4-20291DBF43E6}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,13 +979,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1055,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1069,10 +1078,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
@@ -1080,16 +1089,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>7</v>
@@ -1106,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -1159,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,7 +1182,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>29</v>
@@ -1190,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>31</v>
@@ -1207,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>33</v>
@@ -1232,7 +1241,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1241,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1266,7 +1275,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>40</v>
@@ -1280,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
@@ -1294,10 +1303,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>46</v>
@@ -1311,10 +1320,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>48</v>
@@ -1331,7 +1340,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>52</v>
@@ -1348,7 +1357,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>55</v>
@@ -1365,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>57</v>
@@ -1396,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>60</v>
@@ -1413,7 +1422,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>64</v>
@@ -1444,7 +1453,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>69</v>
@@ -1461,7 +1470,7 @@
         <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>72</v>
@@ -1475,13 +1484,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>75</v>
@@ -1498,7 +1507,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>78</v>
@@ -1540,7 +1549,7 @@
         <v>85</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,7 +1574,7 @@
         <v>89</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1576,13 +1585,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>91</v>
@@ -1599,7 +1608,7 @@
         <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>93</v>
@@ -1613,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1635,10 +1644,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>99</v>
@@ -1649,10 +1658,10 @@
         <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>101</v>
@@ -1683,7 +1692,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>106</v>
@@ -1714,7 +1723,7 @@
         <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>111</v>
@@ -1739,16 +1748,16 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>27</v>
@@ -1779,26 +1788,26 @@
         <v>27</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
@@ -1807,96 +1816,110 @@
         <v>45</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>181</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/sample_work/food.xlsx
+++ b/sample_work/food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouz8/Desktop/gitclone/QAQ/sample_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0BEE58-BE7A-8D49-8837-2134FB6C0D8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6116B4-C256-D344-A035-783FD18E0DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="4620" windowWidth="28040" windowHeight="17440" xr2:uid="{871FA30F-33BD-8148-8CC2-CB2E81A179DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="190">
   <si>
     <t>name</t>
   </si>
@@ -558,15 +558,6 @@
     <t>duck chambord</t>
   </si>
   <si>
-    <t>Bavarian Bierhaus</t>
-  </si>
-  <si>
-    <t>121 Opry Mills Dr, Nashville, TN 37214</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
     <t>Cafe Fuzion</t>
   </si>
   <si>
@@ -586,6 +577,30 @@
   </si>
   <si>
     <t>166 2nd Ave N, Nashville, TN 37201</t>
+  </si>
+  <si>
+    <t>6728 Charlotte Pike, Nashville, TN 37209</t>
+  </si>
+  <si>
+    <t>Cost Plus World Market</t>
+  </si>
+  <si>
+    <t>D’Andrews Bakery &amp; Café</t>
+  </si>
+  <si>
+    <t>555 Church St, Nashville, TN 37219</t>
+  </si>
+  <si>
+    <t>almond cake</t>
+  </si>
+  <si>
+    <t>HD Market Asian Foods</t>
+  </si>
+  <si>
+    <t>2059 Antioch Pike, Antioch, TN 37013</t>
+  </si>
+  <si>
+    <t>bibimbap</t>
   </si>
 </sst>
 </file>
@@ -959,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEC2D80-4163-9F49-9FA4-20291DBF43E6}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
@@ -1303,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>139</v>
@@ -1320,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>170</v>
@@ -1788,7 +1803,7 @@
         <v>27</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1881,45 +1896,70 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>181</v>
+      <c r="A63" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>183</v>
+      <c r="E64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/sample_work/food.xlsx
+++ b/sample_work/food.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouz8/Desktop/gitclone/QAQ/sample_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6116B4-C256-D344-A035-783FD18E0DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12589164-1706-E24A-A8B7-E38D86CA10EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="4620" windowWidth="28040" windowHeight="17440" xr2:uid="{871FA30F-33BD-8148-8CC2-CB2E81A179DA}"/>
+    <workbookView xWindow="28840" yWindow="780" windowWidth="31640" windowHeight="24740" xr2:uid="{871FA30F-33BD-8148-8CC2-CB2E81A179DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$67</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
   <si>
     <t>name</t>
   </si>
@@ -141,12 +144,6 @@
     <t>1812 21st Ave S, Nashville, TN 37212</t>
   </si>
   <si>
-    <t>Bootleggers Inn</t>
-  </si>
-  <si>
-    <t>207 Broadway, Nashville, TN 37201</t>
-  </si>
-  <si>
     <t>Peg Leg Porker BBQ</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Chauhan Ale &amp; Masala House</t>
   </si>
   <si>
-    <t>Inidian</t>
-  </si>
-  <si>
     <t>123 12th Ave N, Nashville, TN 37203</t>
   </si>
   <si>
@@ -183,15 +177,9 @@
     <t>English</t>
   </si>
   <si>
-    <t>Maggiano's Little Italy</t>
-  </si>
-  <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>3106 West End Ave, Nashville, TN 37203</t>
-  </si>
-  <si>
     <t>Chateau West</t>
   </si>
   <si>
@@ -321,12 +309,6 @@
     <t>The Patterson House</t>
   </si>
   <si>
-    <t>Samurai Sushi</t>
-  </si>
-  <si>
-    <t>2209 Elliston Pl, Nashville, TN 37203</t>
-  </si>
-  <si>
     <t>Newk's Eatery</t>
   </si>
   <si>
@@ -453,9 +435,6 @@
     <t>chicken waffle, chai</t>
   </si>
   <si>
-    <t>calamari, sangria</t>
-  </si>
-  <si>
     <t>risotto balls</t>
   </si>
   <si>
@@ -601,13 +580,76 @@
   </si>
   <si>
     <t>bibimbap</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>Gyros Kitchen Greek cafe &amp; Taverna</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>2412 West End Ave, Nashville, TN 37209</t>
+  </si>
+  <si>
+    <t>Korea House Restaurant</t>
+  </si>
+  <si>
+    <t>6410 Charlotte Pike #108, Nashville, TN 37209</t>
+  </si>
+  <si>
+    <t>North Italia</t>
+  </si>
+  <si>
+    <t>burrata, arancini</t>
+  </si>
+  <si>
+    <t>2159 Green Hills Village Dr, Nashville, TN 37215</t>
+  </si>
+  <si>
+    <t>pantry</t>
+  </si>
+  <si>
+    <t>fried tacos</t>
+  </si>
+  <si>
+    <t>cheesecake</t>
+  </si>
+  <si>
+    <t>Fresh &amp; Fresh International Market</t>
+  </si>
+  <si>
+    <t>3905 Nolensville Pike, Nashville, TN 37211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barista Parlor </t>
+  </si>
+  <si>
+    <t>610 Magazine St, Nashville, TN 37203</t>
+  </si>
+  <si>
+    <t>Sump Coffee</t>
+  </si>
+  <si>
+    <t>8 City Blvd Ste 103, Nashville, TN 37209</t>
+  </si>
+  <si>
+    <t>Woodlands Indian Vegetarian Cuisine</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>3415 West End Ave, Nashville, TN 37203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,12 +666,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -654,12 +690,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEC2D80-4163-9F49-9FA4-20291DBF43E6}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +1021,7 @@
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -994,975 +1029,1298 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
+      <c r="E6" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>130</v>
+      <c r="C7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>132</v>
+      <c r="C8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>133</v>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>134</v>
+      <c r="E14" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>135</v>
+      <c r="E15" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>135</v>
+      <c r="E16" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>176</v>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>139</v>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>140</v>
+      <c r="E24" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>141</v>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>144</v>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>145</v>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>148</v>
+      <c r="E34" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="B35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>158</v>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="B47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>28</v>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>161</v>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>188</v>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F67" xr:uid="{FB6F8E8F-6171-CB40-8BD2-F338C00F6C1C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>